--- a/src/controllers/uploads/policy_report.xlsx
+++ b/src/controllers/uploads/policy_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="87">
   <si>
     <t>Product ID</t>
   </si>
@@ -106,13 +106,67 @@
     <t>d18424d6-5316-4e12-9826-302b866a380c</t>
   </si>
   <si>
+    <t>Miriam Nakirwa</t>
+  </si>
+  <si>
+    <t>759681615</t>
+  </si>
+  <si>
+    <t>THE AIRTEL MICRO MEDICAL PRODUCT (ANNUAL PREMIUM)</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>[{"url":"https://www.w3.org/WAI/ER/tests/xhtml/testfiles/resources/pdf/dummy.pdf","name":"policy document"}]</t>
+  </si>
+  <si>
+    <t>Invalid date</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>52126b33-7ece-4793-ba89-a8abc58be82d</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
     <t>William Doe</t>
   </si>
   <si>
-    <t>0757575757</t>
-  </si>
-  <si>
-    <t>THE AIRTEL MICRO MEDICAL PRODUCT (ANNUAL PREMIUM)</t>
+    <t>757575757</t>
   </si>
   <si>
     <t>silver</t>
@@ -136,21 +190,12 @@
     <t>2023-07-31</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
     <t>167000</t>
   </si>
   <si>
     <t>3000000</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>{"hospital_name":"Migisha Clinic","contact_person":"Dr. Mugisha Joseph","hospital_address":"Lwengo Town","hospital_contact":"0772-444-784"}</t>
   </si>
   <si>
@@ -166,30 +211,15 @@
     <t>93ddd486-c44e-455d-b066-b8e40c1dd191</t>
   </si>
   <si>
-    <t>2023-07-24</t>
-  </si>
-  <si>
     <t>Dennis Wafula</t>
   </si>
   <si>
-    <t>254720244299</t>
-  </si>
-  <si>
-    <t>bronze</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>10000</t>
+    <t>720244299</t>
   </si>
   <si>
     <t>120000</t>
   </si>
   <si>
-    <t>1500000</t>
-  </si>
-  <si>
     <t>{"hospital_name":"St.Mary’s Lacor Hospital","contact_person":"Mrs. Iris/Beatrice/Jackie","hospital_address":"Gulu","hospital_contact":"0471-432-310/0772-365-480/0787-576-636/0777-326438"}</t>
   </si>
   <si>
@@ -202,19 +232,46 @@
     <t>Dickens Juma</t>
   </si>
   <si>
-    <t>254704868023</t>
+    <t>756255986</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2023-04-02</t>
   </si>
   <si>
     <t>1d671b41-bad7-4f79-8173-fe2ceabdd6d0</t>
   </si>
   <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>2023-04-02</t>
+    <t>Airtel tester</t>
+  </si>
+  <si>
+    <t>756255985</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>208000</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>856fd2f3-a5f1-40f5-95ec-9f928a6e4ad1</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
   </si>
 </sst>
 </file>
@@ -591,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="30" width="20" customWidth="1"/>
@@ -721,52 +778,49 @@
         <v>39</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>41</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
       </c>
       <c r="AB2">
         <v>2</v>
@@ -775,7 +829,7 @@
         <v>36</v>
       </c>
       <c r="AD2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -783,31 +837,31 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>19</v>
@@ -816,55 +870,58 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
         <v>41</v>
       </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
         <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB3">
         <v>2</v>
       </c>
       <c r="AC3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -872,88 +929,91 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K4">
         <v>19</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
         <v>41</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AA4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AB4">
         <v>2</v>
       </c>
       <c r="AC4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AD4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -961,31 +1021,31 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -994,55 +1054,565 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
         <v>41</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" t="s">
-        <v>58</v>
-      </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AA5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AB5">
         <v>2</v>
       </c>
       <c r="AC5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
         <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/controllers/uploads/policy_report.xlsx
+++ b/src/controllers/uploads/policy_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="386">
   <si>
     <t>Product Name</t>
   </si>
@@ -118,55 +118,1057 @@
     <t>d18424d6-5316-4e12-9826-302b866a380c</t>
   </si>
   <si>
-    <t>93743718690</t>
-  </si>
-  <si>
-    <t>4229</t>
-  </si>
-  <si>
-    <t>VICENT SSEMATA</t>
-  </si>
-  <si>
-    <t>701237357</t>
+    <t>MARIAM NAMUTAMBA</t>
+  </si>
+  <si>
+    <t>700598859</t>
   </si>
   <si>
     <t>SELF</t>
   </si>
   <si>
+    <t>BIGGIE</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>Invalid date</t>
+  </si>
+  <si>
+    <t>208000</t>
+  </si>
+  <si>
+    <t>7c13b5f5-9d55-4817-91d9-deccad3ee01a</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>UGX</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UMAR KASULE</t>
+  </si>
+  <si>
+    <t>706429476</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>c3ac10ab-aa72-4ed9-8a9b-b6249e94b4cb</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>CHRISTINE NATOCHO</t>
+  </si>
+  <si>
+    <t>753272294</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>1199a289-c45f-40cc-91bf-7688cc14135f</t>
+  </si>
+  <si>
+    <t>RONALD BWAMBALE</t>
+  </si>
+  <si>
+    <t>707148731</t>
+  </si>
+  <si>
+    <t>5f920c00-16c6-4d15-865a-87cd3093d894</t>
+  </si>
+  <si>
+    <t>ALIMA MUTESI</t>
+  </si>
+  <si>
+    <t>755179281</t>
+  </si>
+  <si>
+    <t>c0178bff-52b2-4875-b1fd-4a2db6fa0874</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>SCOLA NSHEMEREIRWE</t>
+  </si>
+  <si>
+    <t>707483599</t>
+  </si>
+  <si>
+    <t>61644d90-4e25-4beb-936f-8f12c4ffa09a</t>
+  </si>
+  <si>
+    <t>VICENT MULUMBA</t>
+  </si>
+  <si>
+    <t>740954642</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>69a34e3d-7113-4ff5-bf99-1624e0a0f9cf</t>
+  </si>
+  <si>
+    <t>PASIYANO MUGISHA</t>
+  </si>
+  <si>
+    <t>709596622</t>
+  </si>
+  <si>
+    <t>7e8aea6f-8a04-4435-83f2-6004f0e9c7e5</t>
+  </si>
+  <si>
+    <t>CHARLES LUTAAYA</t>
+  </si>
+  <si>
+    <t>702245614</t>
+  </si>
+  <si>
+    <t>e63ebad0-e8d3-4216-b2bf-97cb14624ff6</t>
+  </si>
+  <si>
+    <t>EDWIN NSASIIRWE</t>
+  </si>
+  <si>
+    <t>707727318</t>
+  </si>
+  <si>
+    <t>393018a9-bb62-4462-a841-2567191d7eb6</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>AMON TUMWEBAZE</t>
+  </si>
+  <si>
+    <t>707140686</t>
+  </si>
+  <si>
+    <t>c0752b7f-a672-4d87-8bfb-56b305f65982</t>
+  </si>
+  <si>
+    <t>YUNUSU HIIRE</t>
+  </si>
+  <si>
+    <t>741153029</t>
+  </si>
+  <si>
+    <t>ff2759fb-bf3b-4c05-82a2-88ff9f412789</t>
+  </si>
+  <si>
+    <t>STEPHEN MUHINDO</t>
+  </si>
+  <si>
+    <t>740067090</t>
+  </si>
+  <si>
     <t>MIDI</t>
   </si>
   <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2024-10-25</t>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>4f632822-c3ba-429e-b27c-f014a4d49ce3</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>ROSE NAKARYANGO</t>
+  </si>
+  <si>
+    <t>702966571</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+  </si>
+  <si>
+    <t>3fd340a6-a239-40b8-b1e7-87d770dbbf28</t>
+  </si>
+  <si>
+    <t>CLEMENT MADULI</t>
+  </si>
+  <si>
+    <t>741852342</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>97b90f38-469a-4b00-a73d-639c823737ca</t>
+  </si>
+  <si>
+    <t>MADINA NAKIYAGA</t>
+  </si>
+  <si>
+    <t>708776012</t>
+  </si>
+  <si>
+    <t>3f73643b-731a-4cb1-9769-f9b048b38ae4</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>SANDE SSEMUJU</t>
+  </si>
+  <si>
+    <t>702745073</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>0f49af1a-acb0-49ef-8061-e05d8913369d</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>MAULICIA KYALIMPA</t>
+  </si>
+  <si>
+    <t>705932721</t>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>b82cacf0-4410-42b9-964a-33d9b9934cb8</t>
+  </si>
+  <si>
+    <t>KASAIJA JACKSON</t>
+  </si>
+  <si>
+    <t>705343142</t>
+  </si>
+  <si>
+    <t>69df0c84-e337-4209-90f7-123078b95e35</t>
+  </si>
+  <si>
+    <t>KENNETH MWAYAFU</t>
+  </si>
+  <si>
+    <t>701981907</t>
+  </si>
+  <si>
+    <t>c9cf7312-ac64-48d0-9744-61bd44dc258c</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>NAUME NATUKUNDA</t>
+  </si>
+  <si>
+    <t>705795626</t>
+  </si>
+  <si>
+    <t>11e64341-a51a-4b6d-b211-45a607f3adb7</t>
+  </si>
+  <si>
+    <t>PATRICK MULINDWA</t>
+  </si>
+  <si>
+    <t>756437351</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>M+6</t>
+  </si>
+  <si>
+    <t>108000</t>
+  </si>
+  <si>
+    <t>299b382a-8210-418b-9e08-7360e7e53067</t>
+  </si>
+  <si>
+    <t>MATHIAS KYARISIIMA</t>
+  </si>
+  <si>
+    <t>700124973</t>
+  </si>
+  <si>
+    <t>d3018e65-0e1f-4425-ba60-f72d8225752e</t>
+  </si>
+  <si>
+    <t>ROGERS MUDOKO</t>
+  </si>
+  <si>
+    <t>701155765</t>
+  </si>
+  <si>
+    <t>707ad149-4e74-473c-a0ed-1164b782f754</t>
+  </si>
+  <si>
+    <t>MARTIN BAHANDE</t>
+  </si>
+  <si>
+    <t>703160371</t>
+  </si>
+  <si>
+    <t>549ecc4c-41c1-4900-bd9a-7e3d0bf88684</t>
+  </si>
+  <si>
+    <t>ANNET NAMUYANJA</t>
+  </si>
+  <si>
+    <t>744029252</t>
+  </si>
+  <si>
+    <t>M+4</t>
+  </si>
+  <si>
+    <t>720000</t>
+  </si>
+  <si>
+    <t>97b84bcd-f04f-4353-ad77-208b6a91a1ab</t>
+  </si>
+  <si>
+    <t>SINANI MAGORORO</t>
+  </si>
+  <si>
+    <t>702750213</t>
+  </si>
+  <si>
+    <t>8d636db5-931f-457c-ab8d-0f9cc05f65ba</t>
+  </si>
+  <si>
+    <t>CHARLES MAGUMBA</t>
+  </si>
+  <si>
+    <t>743029230</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>9bb1852d-bcaf-45bf-bad3-5b453ceb6906</t>
+  </si>
+  <si>
+    <t>KITI MAGAYA</t>
+  </si>
+  <si>
+    <t>756446558</t>
+  </si>
+  <si>
+    <t>4c83ea43-7931-4aa3-a612-8734e32ba918</t>
+  </si>
+  <si>
+    <t>INNOCENT WAAKO</t>
+  </si>
+  <si>
+    <t>702095766</t>
+  </si>
+  <si>
+    <t>5da218c8-6209-4a6c-934a-09bc1039d627</t>
+  </si>
+  <si>
+    <t>ERISA SSERUBUGO</t>
+  </si>
+  <si>
+    <t>702414500</t>
   </si>
   <si>
     <t>167000</t>
   </si>
   <si>
-    <t>83c91453-1bf7-46d3-926c-3f28c5076ae7</t>
-  </si>
-  <si>
-    <t>Invalid date</t>
-  </si>
-  <si>
-    <t>2023-11-25</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>UGX</t>
-  </si>
-  <si>
-    <t>UGA</t>
+    <t>6b0b5018-69b9-4b8b-ae0c-40294b70a87d</t>
+  </si>
+  <si>
+    <t>PHIONA NALUBEGA</t>
+  </si>
+  <si>
+    <t>700601666</t>
+  </si>
+  <si>
+    <t>0a8bd43a-89e9-43c0-bd44-99d9b0252149</t>
+  </si>
+  <si>
+    <t>FRANCIS KAMUGISHA</t>
+  </si>
+  <si>
+    <t>700838596</t>
+  </si>
+  <si>
+    <t>ee7e916b-5c4c-4cfd-8597-65a26d7d3596</t>
+  </si>
+  <si>
+    <t>MUTASA JUMBA</t>
+  </si>
+  <si>
+    <t>752255783</t>
+  </si>
+  <si>
+    <t>d2705eb9-66fc-4ed4-820c-1507b36fb2fb</t>
+  </si>
+  <si>
+    <t>SCOVIA NABWILE</t>
+  </si>
+  <si>
+    <t>750862328</t>
+  </si>
+  <si>
+    <t>610a6cdb-0d68-4f7f-bd1d-b1bd47a7b2fd</t>
+  </si>
+  <si>
+    <t>NOAH BANOBA</t>
+  </si>
+  <si>
+    <t>709858795</t>
+  </si>
+  <si>
+    <t>08e52dc3-f5e5-4a55-bf96-4fef3890da27</t>
+  </si>
+  <si>
+    <t>DENIS AYEBAZIBWE</t>
+  </si>
+  <si>
+    <t>756057867</t>
+  </si>
+  <si>
+    <t>c953c277-a9bb-42c4-b566-7a0cd4c9fcbc</t>
+  </si>
+  <si>
+    <t>JAMES ORISA</t>
+  </si>
+  <si>
+    <t>751566610</t>
+  </si>
+  <si>
+    <t>13c42cfd-174b-4100-bbdc-e9b97a9010a6</t>
+  </si>
+  <si>
+    <t>AGNES KYAKYO</t>
+  </si>
+  <si>
+    <t>744879320</t>
+  </si>
+  <si>
+    <t>e79b7835-6e83-4484-84fb-b442a6aad0fe</t>
+  </si>
+  <si>
+    <t>HARRIET NABULIME</t>
+  </si>
+  <si>
+    <t>753710327</t>
+  </si>
+  <si>
+    <t>5da9c635-05b1-403f-903a-4b4e47075245</t>
+  </si>
+  <si>
+    <t>COSTANCE NIWAMUMPEIRE</t>
+  </si>
+  <si>
+    <t>741600092</t>
+  </si>
+  <si>
+    <t>M+1</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>c6cad960-67b5-4c86-9657-3d5ae9fc93ad</t>
+  </si>
+  <si>
+    <t>HERBERT NIWAGABA</t>
+  </si>
+  <si>
+    <t>757210958</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2024-11-09</t>
+  </si>
+  <si>
+    <t>87a5bb24-fb6c-4282-8402-8b995430efa8</t>
+  </si>
+  <si>
+    <t>ESIPENONS MUTUNGIYINHA</t>
+  </si>
+  <si>
+    <t>743861460</t>
+  </si>
+  <si>
+    <t>c635c06b-88bc-40eb-ac2f-8d18201e2785</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>JOY MUDONDO</t>
+  </si>
+  <si>
+    <t>742713268</t>
+  </si>
+  <si>
+    <t>8625b46b-2409-4900-881f-f48a7ee0c2f2</t>
+  </si>
+  <si>
+    <t>AMOS ARIONG</t>
+  </si>
+  <si>
+    <t>756017342</t>
+  </si>
+  <si>
+    <t>75a9466b-46c0-42a8-8858-44127eaf01be</t>
+  </si>
+  <si>
+    <t>ANNA ACHEN</t>
+  </si>
+  <si>
+    <t>708528219</t>
+  </si>
+  <si>
+    <t>c52a9808-c3f4-4565-990d-92510c0779f8</t>
+  </si>
+  <si>
+    <t>JAMES OKOTH</t>
+  </si>
+  <si>
+    <t>753695115</t>
+  </si>
+  <si>
+    <t>4525d78c-a3aa-4acd-9e39-e99ce03b060a</t>
+  </si>
+  <si>
+    <t>SULAIMAN KAWOOYA</t>
+  </si>
+  <si>
+    <t>743363892</t>
+  </si>
+  <si>
+    <t>d1c4edd1-106f-49f9-a721-ab4eb093aebc</t>
+  </si>
+  <si>
+    <t>MANEAL MUKEMBO</t>
+  </si>
+  <si>
+    <t>704064959</t>
+  </si>
+  <si>
+    <t>M+2</t>
+  </si>
+  <si>
+    <t>577000</t>
+  </si>
+  <si>
+    <t>5662306e-9e8b-43fc-b32a-71d5269586fa</t>
+  </si>
+  <si>
+    <t>OLIVER NANDUJJA</t>
+  </si>
+  <si>
+    <t>701572730</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>f859496e-e584-4aee-9f1f-895e74de63ef</t>
+  </si>
+  <si>
+    <t>EMANUEL KADOWE</t>
+  </si>
+  <si>
+    <t>707061541</t>
+  </si>
+  <si>
+    <t>cb10923a-ba42-48e0-9dfc-a1867293efac</t>
+  </si>
+  <si>
+    <t>GRACE ICOROI</t>
+  </si>
+  <si>
+    <t>707912112</t>
+  </si>
+  <si>
+    <t>9bc0b193-f7f7-456f-a802-96578d8ab53a</t>
+  </si>
+  <si>
+    <t>FARIDAH NAKAFEERO</t>
+  </si>
+  <si>
+    <t>709392204</t>
+  </si>
+  <si>
+    <t>8d4620a3-9420-43c6-9b12-bd3a6f8433ff</t>
+  </si>
+  <si>
+    <t>CLAIRE NANYANZI</t>
+  </si>
+  <si>
+    <t>709110790</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>1bd25fd6-4161-4e89-85a6-6a1211b51fe2</t>
+  </si>
+  <si>
+    <t>ANNET KAGOYA</t>
+  </si>
+  <si>
+    <t>703102860</t>
+  </si>
+  <si>
+    <t>e8cfe9e4-b9b6-4042-825c-bc4821cc7e44</t>
+  </si>
+  <si>
+    <t>PERUSI KANYAGO</t>
+  </si>
+  <si>
+    <t>742632946</t>
+  </si>
+  <si>
+    <t>5e0ffe23-8b49-4e12-b21c-452b7d329b96</t>
+  </si>
+  <si>
+    <t>PHIONA NAIGAGA</t>
+  </si>
+  <si>
+    <t>750218417</t>
+  </si>
+  <si>
+    <t>d80c3cfa-4409-4222-ba30-590a5b27e733</t>
+  </si>
+  <si>
+    <t>HILLARYBALE MUKWANOSON</t>
+  </si>
+  <si>
+    <t>701829883</t>
+  </si>
+  <si>
+    <t>db281a1b-a217-43fb-9f1e-bc67c0cca31a</t>
+  </si>
+  <si>
+    <t>MOSES WAISWA</t>
+  </si>
+  <si>
+    <t>755145050</t>
+  </si>
+  <si>
+    <t>1238000</t>
+  </si>
+  <si>
+    <t>6cf482b0-180f-485b-9ed9-3d6d5e04d6c8</t>
+  </si>
+  <si>
+    <t>FIRIDAUS NAKANWAGI</t>
+  </si>
+  <si>
+    <t>744014337</t>
+  </si>
+  <si>
+    <t>468fc8df-221b-4f4f-aecb-b4da391daef1</t>
+  </si>
+  <si>
+    <t>LOY NAKIRYA</t>
+  </si>
+  <si>
+    <t>709404450</t>
+  </si>
+  <si>
+    <t>3bbe5f29-81ab-471d-b583-d1c6c7f9fd3a</t>
+  </si>
+  <si>
+    <t>ATUKWASE ROGERS</t>
+  </si>
+  <si>
+    <t>704111769</t>
+  </si>
+  <si>
+    <t>e3439502-bbd1-4def-9ee3-84234c6495cb</t>
+  </si>
+  <si>
+    <t>RONALD TUGUME</t>
+  </si>
+  <si>
+    <t>741902824</t>
+  </si>
+  <si>
+    <t>b98f27c8-fc9c-44a0-ac38-351eba211c30</t>
+  </si>
+  <si>
+    <t>CATHERINE NABIRYE</t>
+  </si>
+  <si>
+    <t>706815603</t>
+  </si>
+  <si>
+    <t>87f0029c-6e53-4ae2-869a-a14cc5643b18</t>
+  </si>
+  <si>
+    <t>TOM MUKASA</t>
+  </si>
+  <si>
+    <t>706045779</t>
+  </si>
+  <si>
+    <t>7f3ef0d1-d144-409a-b2ae-c3d01fb22307</t>
+  </si>
+  <si>
+    <t>RAMADHAN MUYANJA</t>
+  </si>
+  <si>
+    <t>705920469</t>
+  </si>
+  <si>
+    <t>2ef538d3-011c-4a42-b9a5-4bb06f08349f</t>
+  </si>
+  <si>
+    <t>ANNASTANZIA AKUI</t>
+  </si>
+  <si>
+    <t>740198673</t>
+  </si>
+  <si>
+    <t>1e77905d-7c8f-442f-b4b5-05db5921fc2e</t>
+  </si>
+  <si>
+    <t>YUBU MULIIKA</t>
+  </si>
+  <si>
+    <t>743935905</t>
+  </si>
+  <si>
+    <t>1d5be4aa-2212-4ead-86c8-96088857d9ef</t>
+  </si>
+  <si>
+    <t>BRAVO ABISINGUZA</t>
+  </si>
+  <si>
+    <t>708074454</t>
+  </si>
+  <si>
+    <t>38e77ce2-1631-49e0-bef3-8e07f42be235</t>
+  </si>
+  <si>
+    <t>JULIUS NYENDE</t>
+  </si>
+  <si>
+    <t>702050782</t>
+  </si>
+  <si>
+    <t>ca5007bc-4cb1-4b15-a8ae-cf24374f0ae8</t>
+  </si>
+  <si>
+    <t>MOSES KIRYA</t>
+  </si>
+  <si>
+    <t>708638829</t>
+  </si>
+  <si>
+    <t>b92041c4-ce76-428b-aac5-63fa5e1117f6</t>
+  </si>
+  <si>
+    <t>ASUMANI MUZEYI</t>
+  </si>
+  <si>
+    <t>753163007</t>
+  </si>
+  <si>
+    <t>226905be-18f0-4999-becd-9fcde9e6c3bf</t>
+  </si>
+  <si>
+    <t>ZIPOLA WIMANA</t>
+  </si>
+  <si>
+    <t>704822357</t>
+  </si>
+  <si>
+    <t>944e4cfc-da05-45df-be7b-7d56c4977ffd</t>
+  </si>
+  <si>
+    <t>OLIVER NAKAFUMBE</t>
+  </si>
+  <si>
+    <t>758347065</t>
+  </si>
+  <si>
+    <t>92ae5c21-d9f3-4b81-9788-5b3fe96c9653</t>
+  </si>
+  <si>
+    <t>JOSEPH SHISA</t>
+  </si>
+  <si>
+    <t>703618631</t>
+  </si>
+  <si>
+    <t>0609b48e-25fb-416d-906a-44343d26fa96</t>
+  </si>
+  <si>
+    <t>MOSES EGWATU</t>
+  </si>
+  <si>
+    <t>753440676</t>
+  </si>
+  <si>
+    <t>026fe1d8-2595-4b93-b0e8-58119aad3e65</t>
+  </si>
+  <si>
+    <t>Ndyamwesiga Wellen</t>
+  </si>
+  <si>
+    <t>704124665</t>
+  </si>
+  <si>
+    <t>d7b51f76-ca18-43ee-aff5-951d4fbb0c77</t>
+  </si>
+  <si>
+    <t>KISAKYAYESU NAMAGANDA</t>
+  </si>
+  <si>
+    <t>751646742</t>
+  </si>
+  <si>
+    <t>c71a4dee-f951-4e2e-9492-6e31170d39e0</t>
+  </si>
+  <si>
+    <t>CATHERINE NASSIWA</t>
+  </si>
+  <si>
+    <t>744142095</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>dcfa71b1-3a9a-4753-8b72-4709c47a7cbb</t>
+  </si>
+  <si>
+    <t>SALAMA NANDUDU</t>
+  </si>
+  <si>
+    <t>743566194</t>
+  </si>
+  <si>
+    <t>7c22b50b-d070-4cc4-9ab5-f8deb1debd1a</t>
+  </si>
+  <si>
+    <t>HABIIBAH NAMIIRO</t>
+  </si>
+  <si>
+    <t>704023602</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>b2ddd7e9-a90f-4130-8a84-6c17ce8da370</t>
+  </si>
+  <si>
+    <t>LAZIA NALWOGA</t>
+  </si>
+  <si>
+    <t>704162431</t>
+  </si>
+  <si>
+    <t>5766af47-2aec-4f4e-b4cb-4c341281a1df</t>
+  </si>
+  <si>
+    <t>TIMOTHY ALINGA</t>
+  </si>
+  <si>
+    <t>701679841</t>
+  </si>
+  <si>
+    <t>0e52b17b-641a-41af-85c2-be8494eeca35</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>HADIJJA KAGOYA</t>
+  </si>
+  <si>
+    <t>752192041</t>
+  </si>
+  <si>
+    <t>8f90f179-260a-42e1-a4e3-c7113d91b61b</t>
+  </si>
+  <si>
+    <t>IRENE NYACHWO</t>
+  </si>
+  <si>
+    <t>750668272</t>
+  </si>
+  <si>
+    <t>9d2c6b43-12d1-451b-ac76-5dea370cdfa8</t>
+  </si>
+  <si>
+    <t>BRIDGET NAKANJAKO</t>
+  </si>
+  <si>
+    <t>709884921</t>
+  </si>
+  <si>
+    <t>18bdf1a9-1e60-47d2-8d10-57f5a7be63c3</t>
+  </si>
+  <si>
+    <t>EVALYNE KATUSHABE</t>
+  </si>
+  <si>
+    <t>744923544</t>
+  </si>
+  <si>
+    <t>f1679ee9-75ed-43ff-88f0-19cf19ddce7f</t>
+  </si>
+  <si>
+    <t>ERIA MUSENE</t>
+  </si>
+  <si>
+    <t>740449123</t>
+  </si>
+  <si>
+    <t>f0d3197d-b40c-4458-99c2-fbaa44eebfa0</t>
+  </si>
+  <si>
+    <t>TOPISTA NAJJUMA</t>
+  </si>
+  <si>
+    <t>700532604</t>
+  </si>
+  <si>
+    <t>a26cb248-764e-438b-a292-c6df1af5bed8</t>
+  </si>
+  <si>
+    <t>SOSTINE TUHIRIRWE</t>
+  </si>
+  <si>
+    <t>740580835</t>
+  </si>
+  <si>
+    <t>a82a07eb-9ae6-4c35-a6c3-bd06ed923108</t>
+  </si>
+  <si>
+    <t>PRECIOUS NDYAMUHAKI</t>
+  </si>
+  <si>
+    <t>756982166</t>
+  </si>
+  <si>
+    <t>89676d19-82f0-4bef-acd4-9e5ad47f1dc4</t>
+  </si>
+  <si>
+    <t>EDWARD NIWAHEREZA</t>
+  </si>
+  <si>
+    <t>759972496</t>
+  </si>
+  <si>
+    <t>56703d61-6d75-42b5-8778-3a5178866e06</t>
+  </si>
+  <si>
+    <t>DALIUS NUWAGABA</t>
+  </si>
+  <si>
+    <t>744930440</t>
+  </si>
+  <si>
+    <t>bdc1c03a-58fb-4e04-bf66-447cf3ae3559</t>
+  </si>
+  <si>
+    <t>GODFREY KAATE</t>
+  </si>
+  <si>
+    <t>743228033</t>
+  </si>
+  <si>
+    <t>26ac26c2-2838-4cbb-a1af-637e5210eb8c</t>
+  </si>
+  <si>
+    <t>SIRAGI ISABIRYE</t>
+  </si>
+  <si>
+    <t>701709942</t>
+  </si>
+  <si>
+    <t>bfb9fa9f-39e6-4857-9730-4071a276e563</t>
+  </si>
+  <si>
+    <t>NASSER SSEMPEBWA</t>
+  </si>
+  <si>
+    <t>743815576</t>
+  </si>
+  <si>
+    <t>f962effb-6a31-4d06-89ac-320409fbaae4</t>
+  </si>
+  <si>
+    <t>FATINA NANTEZA</t>
+  </si>
+  <si>
+    <t>757609249</t>
+  </si>
+  <si>
+    <t>df732dd3-86ed-4390-af35-d5c6c305953d</t>
+  </si>
+  <si>
+    <t>ABERT BYAKATONDA</t>
+  </si>
+  <si>
+    <t>755221154</t>
+  </si>
+  <si>
+    <t>e83474dd-7988-4ebd-bd56-84e2f639598c</t>
   </si>
 </sst>
 </file>
@@ -543,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG101"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="33" width="20" customWidth="1"/>
@@ -657,80 +1659,7718 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="S2">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AC2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>42</v>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" t="s">
+        <v>53</v>
+      </c>
+      <c r="X13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" t="s">
+        <v>96</v>
+      </c>
+      <c r="X14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>102</v>
+      </c>
+      <c r="V15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W16" t="s">
+        <v>106</v>
+      </c>
+      <c r="X16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>111</v>
+      </c>
+      <c r="V17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R18" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>120</v>
+      </c>
+      <c r="V19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" t="s">
+        <v>106</v>
+      </c>
+      <c r="X19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>120</v>
+      </c>
+      <c r="V20" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20" t="s">
+        <v>106</v>
+      </c>
+      <c r="X20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>127</v>
+      </c>
+      <c r="R21" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>128</v>
+      </c>
+      <c r="V21" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21">
+        <v>2</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>131</v>
+      </c>
+      <c r="R22" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" t="s">
+        <v>106</v>
+      </c>
+      <c r="X22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE22">
+        <v>2</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>137</v>
+      </c>
+      <c r="R23" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23" t="s">
+        <v>136</v>
+      </c>
+      <c r="X23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE23">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>140</v>
+      </c>
+      <c r="R24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>86</v>
+      </c>
+      <c r="V24" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>143</v>
+      </c>
+      <c r="R25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>75</v>
+      </c>
+      <c r="V25" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25" t="s">
+        <v>53</v>
+      </c>
+      <c r="X25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>146</v>
+      </c>
+      <c r="R26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
+        <v>75</v>
+      </c>
+      <c r="V26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W26" t="s">
+        <v>53</v>
+      </c>
+      <c r="X26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE26">
+        <v>2</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>151</v>
+      </c>
+      <c r="R27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" t="s">
+        <v>150</v>
+      </c>
+      <c r="X27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>154</v>
+      </c>
+      <c r="R28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28">
+        <v>14</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W28" t="s">
+        <v>106</v>
+      </c>
+      <c r="X28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>158</v>
+      </c>
+      <c r="R29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29">
+        <v>14</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>45</v>
+      </c>
+      <c r="V29" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" t="s">
+        <v>157</v>
+      </c>
+      <c r="X29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30">
+        <v>14</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE30">
+        <v>2</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>164</v>
+      </c>
+      <c r="R31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>45</v>
+      </c>
+      <c r="V31" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE31">
+        <v>2</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>168</v>
+      </c>
+      <c r="R32" t="s">
+        <v>42</v>
+      </c>
+      <c r="S32">
+        <v>14</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>45</v>
+      </c>
+      <c r="V32" t="s">
+        <v>42</v>
+      </c>
+      <c r="W32" t="s">
+        <v>167</v>
+      </c>
+      <c r="X32" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>171</v>
+      </c>
+      <c r="R33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33">
+        <v>14</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" t="s">
+        <v>53</v>
+      </c>
+      <c r="X33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>174</v>
+      </c>
+      <c r="R34" t="s">
+        <v>42</v>
+      </c>
+      <c r="S34">
+        <v>14</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W34" t="s">
+        <v>106</v>
+      </c>
+      <c r="X34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE34">
+        <v>2</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>177</v>
+      </c>
+      <c r="R35" t="s">
+        <v>42</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" t="s">
+        <v>60</v>
+      </c>
+      <c r="V35" t="s">
+        <v>42</v>
+      </c>
+      <c r="W35" t="s">
+        <v>106</v>
+      </c>
+      <c r="X35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE35">
+        <v>2</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>180</v>
+      </c>
+      <c r="R36" t="s">
+        <v>42</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>68</v>
+      </c>
+      <c r="V36" t="s">
+        <v>42</v>
+      </c>
+      <c r="W36" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>183</v>
+      </c>
+      <c r="R37" t="s">
+        <v>42</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
+        <v>60</v>
+      </c>
+      <c r="V37" t="s">
+        <v>42</v>
+      </c>
+      <c r="W37" t="s">
+        <v>53</v>
+      </c>
+      <c r="X37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE37">
+        <v>2</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" t="s">
+        <v>60</v>
+      </c>
+      <c r="N38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>186</v>
+      </c>
+      <c r="R38" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>60</v>
+      </c>
+      <c r="V38" t="s">
+        <v>42</v>
+      </c>
+      <c r="W38" t="s">
+        <v>106</v>
+      </c>
+      <c r="X38" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE38">
+        <v>2</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>189</v>
+      </c>
+      <c r="R39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W39" t="s">
+        <v>96</v>
+      </c>
+      <c r="X39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE39">
+        <v>2</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>192</v>
+      </c>
+      <c r="R40" t="s">
+        <v>42</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>68</v>
+      </c>
+      <c r="V40" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" t="s">
+        <v>167</v>
+      </c>
+      <c r="X40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE40">
+        <v>2</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>195</v>
+      </c>
+      <c r="R41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" t="s">
+        <v>60</v>
+      </c>
+      <c r="V41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41" t="s">
+        <v>106</v>
+      </c>
+      <c r="X41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" t="s">
+        <v>198</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>200</v>
+      </c>
+      <c r="R42" t="s">
+        <v>42</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" t="s">
+        <v>42</v>
+      </c>
+      <c r="W42" t="s">
+        <v>199</v>
+      </c>
+      <c r="X42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE42">
+        <v>2</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" t="s">
+        <v>203</v>
+      </c>
+      <c r="M43" t="s">
+        <v>204</v>
+      </c>
+      <c r="N43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>205</v>
+      </c>
+      <c r="R43" t="s">
+        <v>42</v>
+      </c>
+      <c r="S43">
+        <v>9</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
+        <v>204</v>
+      </c>
+      <c r="V43" t="s">
+        <v>42</v>
+      </c>
+      <c r="W43" t="s">
+        <v>53</v>
+      </c>
+      <c r="X43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE43">
+        <v>2</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" t="s">
+        <v>203</v>
+      </c>
+      <c r="M44" t="s">
+        <v>204</v>
+      </c>
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>208</v>
+      </c>
+      <c r="R44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S44">
+        <v>9</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
+        <v>209</v>
+      </c>
+      <c r="V44" t="s">
+        <v>42</v>
+      </c>
+      <c r="W44" t="s">
+        <v>167</v>
+      </c>
+      <c r="X44" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE44">
+        <v>2</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" t="s">
+        <v>203</v>
+      </c>
+      <c r="M45" t="s">
+        <v>204</v>
+      </c>
+      <c r="N45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>212</v>
+      </c>
+      <c r="R45" t="s">
+        <v>42</v>
+      </c>
+      <c r="S45">
+        <v>9</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45" t="s">
+        <v>204</v>
+      </c>
+      <c r="V45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" t="s">
+        <v>96</v>
+      </c>
+      <c r="X45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE45">
+        <v>2</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>213</v>
+      </c>
+      <c r="G46" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" t="s">
+        <v>203</v>
+      </c>
+      <c r="M46" t="s">
+        <v>204</v>
+      </c>
+      <c r="N46" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>215</v>
+      </c>
+      <c r="R46" t="s">
+        <v>42</v>
+      </c>
+      <c r="S46">
+        <v>9</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46" t="s">
+        <v>204</v>
+      </c>
+      <c r="V46" t="s">
+        <v>42</v>
+      </c>
+      <c r="W46" t="s">
+        <v>106</v>
+      </c>
+      <c r="X46" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE46">
+        <v>2</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" t="s">
+        <v>203</v>
+      </c>
+      <c r="M47" t="s">
+        <v>204</v>
+      </c>
+      <c r="N47" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>218</v>
+      </c>
+      <c r="R47" t="s">
+        <v>42</v>
+      </c>
+      <c r="S47">
+        <v>9</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
+        <v>209</v>
+      </c>
+      <c r="V47" t="s">
+        <v>42</v>
+      </c>
+      <c r="W47" t="s">
+        <v>157</v>
+      </c>
+      <c r="X47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE47">
+        <v>2</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" t="s">
+        <v>203</v>
+      </c>
+      <c r="M48" t="s">
+        <v>204</v>
+      </c>
+      <c r="N48" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>221</v>
+      </c>
+      <c r="R48" t="s">
+        <v>42</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48" t="s">
+        <v>209</v>
+      </c>
+      <c r="V48" t="s">
+        <v>42</v>
+      </c>
+      <c r="W48" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" t="s">
+        <v>203</v>
+      </c>
+      <c r="M49" t="s">
+        <v>204</v>
+      </c>
+      <c r="N49" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>224</v>
+      </c>
+      <c r="R49" t="s">
+        <v>42</v>
+      </c>
+      <c r="S49">
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49" t="s">
+        <v>204</v>
+      </c>
+      <c r="V49" t="s">
+        <v>42</v>
+      </c>
+      <c r="W49" t="s">
+        <v>53</v>
+      </c>
+      <c r="X49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE49">
+        <v>2</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" t="s">
+        <v>203</v>
+      </c>
+      <c r="M50" t="s">
+        <v>204</v>
+      </c>
+      <c r="N50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>215</v>
+      </c>
+      <c r="R50" t="s">
+        <v>42</v>
+      </c>
+      <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50" t="s">
+        <v>204</v>
+      </c>
+      <c r="V50" t="s">
+        <v>42</v>
+      </c>
+      <c r="W50" t="s">
+        <v>106</v>
+      </c>
+      <c r="X50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE50">
+        <v>2</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" t="s">
+        <v>75</v>
+      </c>
+      <c r="N51" t="s">
+        <v>42</v>
+      </c>
+      <c r="P51" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>229</v>
+      </c>
+      <c r="R51" t="s">
+        <v>42</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V51" t="s">
+        <v>42</v>
+      </c>
+      <c r="W51" t="s">
+        <v>228</v>
+      </c>
+      <c r="X51" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE51">
+        <v>2</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" t="s">
+        <v>231</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" t="s">
+        <v>232</v>
+      </c>
+      <c r="M52" t="s">
+        <v>233</v>
+      </c>
+      <c r="N52" t="s">
+        <v>232</v>
+      </c>
+      <c r="P52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>234</v>
+      </c>
+      <c r="R52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S52">
+        <v>29</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
+        <v>233</v>
+      </c>
+      <c r="V52" t="s">
+        <v>42</v>
+      </c>
+      <c r="W52" t="s">
+        <v>106</v>
+      </c>
+      <c r="X52" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE52">
+        <v>2</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" t="s">
+        <v>236</v>
+      </c>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L53" t="s">
+        <v>232</v>
+      </c>
+      <c r="M53" t="s">
+        <v>233</v>
+      </c>
+      <c r="N53" t="s">
+        <v>232</v>
+      </c>
+      <c r="P53" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>237</v>
+      </c>
+      <c r="R53" t="s">
+        <v>42</v>
+      </c>
+      <c r="S53">
+        <v>29</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>233</v>
+      </c>
+      <c r="V53" t="s">
+        <v>42</v>
+      </c>
+      <c r="W53" t="s">
+        <v>106</v>
+      </c>
+      <c r="X53" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE53">
+        <v>2</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" t="s">
+        <v>239</v>
+      </c>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" t="s">
+        <v>39</v>
+      </c>
+      <c r="L54" t="s">
+        <v>232</v>
+      </c>
+      <c r="M54" t="s">
+        <v>233</v>
+      </c>
+      <c r="N54" t="s">
+        <v>232</v>
+      </c>
+      <c r="P54" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>240</v>
+      </c>
+      <c r="R54" t="s">
+        <v>42</v>
+      </c>
+      <c r="S54">
+        <v>29</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
+        <v>233</v>
+      </c>
+      <c r="V54" t="s">
+        <v>42</v>
+      </c>
+      <c r="W54" t="s">
+        <v>53</v>
+      </c>
+      <c r="X54" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE54">
+        <v>2</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" t="s">
+        <v>232</v>
+      </c>
+      <c r="M55" t="s">
+        <v>233</v>
+      </c>
+      <c r="N55" t="s">
+        <v>232</v>
+      </c>
+      <c r="P55" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>243</v>
+      </c>
+      <c r="R55" t="s">
+        <v>42</v>
+      </c>
+      <c r="S55">
+        <v>29</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>233</v>
+      </c>
+      <c r="V55" t="s">
+        <v>42</v>
+      </c>
+      <c r="W55" t="s">
+        <v>53</v>
+      </c>
+      <c r="X55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE55">
+        <v>2</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" t="s">
+        <v>244</v>
+      </c>
+      <c r="G56" t="s">
+        <v>245</v>
+      </c>
+      <c r="H56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M56" t="s">
+        <v>41</v>
+      </c>
+      <c r="N56" t="s">
+        <v>42</v>
+      </c>
+      <c r="P56" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>247</v>
+      </c>
+      <c r="R56" t="s">
+        <v>42</v>
+      </c>
+      <c r="S56">
+        <v>14</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
+        <v>42</v>
+      </c>
+      <c r="V56" t="s">
+        <v>42</v>
+      </c>
+      <c r="W56" t="s">
+        <v>246</v>
+      </c>
+      <c r="X56" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE56">
+        <v>2</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G57" t="s">
+        <v>249</v>
+      </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N57" t="s">
+        <v>42</v>
+      </c>
+      <c r="P57" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>250</v>
+      </c>
+      <c r="R57" t="s">
+        <v>42</v>
+      </c>
+      <c r="S57">
+        <v>14</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" t="s">
+        <v>42</v>
+      </c>
+      <c r="W57" t="s">
+        <v>106</v>
+      </c>
+      <c r="X57" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE57">
+        <v>2</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" t="s">
+        <v>39</v>
+      </c>
+      <c r="L58" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" t="s">
+        <v>41</v>
+      </c>
+      <c r="N58" t="s">
+        <v>42</v>
+      </c>
+      <c r="P58" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>253</v>
+      </c>
+      <c r="R58" t="s">
+        <v>42</v>
+      </c>
+      <c r="S58">
+        <v>14</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
+        <v>45</v>
+      </c>
+      <c r="V58" t="s">
+        <v>42</v>
+      </c>
+      <c r="W58" t="s">
+        <v>43</v>
+      </c>
+      <c r="X58" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE58">
+        <v>2</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" t="s">
+        <v>255</v>
+      </c>
+      <c r="H59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>39</v>
+      </c>
+      <c r="L59" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" t="s">
+        <v>41</v>
+      </c>
+      <c r="N59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>256</v>
+      </c>
+      <c r="R59" t="s">
+        <v>42</v>
+      </c>
+      <c r="S59">
+        <v>14</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" t="s">
+        <v>45</v>
+      </c>
+      <c r="V59" t="s">
+        <v>42</v>
+      </c>
+      <c r="W59" t="s">
+        <v>43</v>
+      </c>
+      <c r="X59" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE59">
+        <v>2</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60" t="s">
+        <v>258</v>
+      </c>
+      <c r="H60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60" t="s">
+        <v>42</v>
+      </c>
+      <c r="P60" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>259</v>
+      </c>
+      <c r="R60" t="s">
+        <v>42</v>
+      </c>
+      <c r="S60">
+        <v>14</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60" t="s">
+        <v>41</v>
+      </c>
+      <c r="V60" t="s">
+        <v>42</v>
+      </c>
+      <c r="W60" t="s">
+        <v>53</v>
+      </c>
+      <c r="X60" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE60">
+        <v>2</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
+        <v>260</v>
+      </c>
+      <c r="G61" t="s">
+        <v>261</v>
+      </c>
+      <c r="H61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K61" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" t="s">
+        <v>40</v>
+      </c>
+      <c r="M61" t="s">
+        <v>41</v>
+      </c>
+      <c r="N61" t="s">
+        <v>42</v>
+      </c>
+      <c r="P61" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>263</v>
+      </c>
+      <c r="R61" t="s">
+        <v>42</v>
+      </c>
+      <c r="S61">
+        <v>14</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" t="s">
+        <v>42</v>
+      </c>
+      <c r="V61" t="s">
+        <v>42</v>
+      </c>
+      <c r="W61" t="s">
+        <v>262</v>
+      </c>
+      <c r="X61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE61">
+        <v>2</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" t="s">
+        <v>265</v>
+      </c>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62" t="s">
+        <v>39</v>
+      </c>
+      <c r="L62" t="s">
+        <v>40</v>
+      </c>
+      <c r="M62" t="s">
+        <v>41</v>
+      </c>
+      <c r="N62" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>266</v>
+      </c>
+      <c r="R62" t="s">
+        <v>42</v>
+      </c>
+      <c r="S62">
+        <v>14</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62" t="s">
+        <v>41</v>
+      </c>
+      <c r="V62" t="s">
+        <v>42</v>
+      </c>
+      <c r="W62" t="s">
+        <v>96</v>
+      </c>
+      <c r="X62" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE62">
+        <v>2</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" t="s">
+        <v>267</v>
+      </c>
+      <c r="G63" t="s">
+        <v>268</v>
+      </c>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" t="s">
+        <v>41</v>
+      </c>
+      <c r="N63" t="s">
+        <v>42</v>
+      </c>
+      <c r="P63" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>269</v>
+      </c>
+      <c r="R63" t="s">
+        <v>42</v>
+      </c>
+      <c r="S63">
+        <v>14</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63" t="s">
+        <v>41</v>
+      </c>
+      <c r="V63" t="s">
+        <v>42</v>
+      </c>
+      <c r="W63" t="s">
+        <v>53</v>
+      </c>
+      <c r="X63" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE63">
+        <v>2</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>270</v>
+      </c>
+      <c r="G64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+      <c r="K64" t="s">
+        <v>39</v>
+      </c>
+      <c r="L64" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" t="s">
+        <v>41</v>
+      </c>
+      <c r="N64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P64" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>272</v>
+      </c>
+      <c r="R64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S64">
+        <v>14</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64" t="s">
+        <v>41</v>
+      </c>
+      <c r="V64" t="s">
+        <v>42</v>
+      </c>
+      <c r="W64" t="s">
+        <v>96</v>
+      </c>
+      <c r="X64" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE64">
+        <v>2</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>273</v>
+      </c>
+      <c r="G65" t="s">
+        <v>274</v>
+      </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" t="s">
+        <v>39</v>
+      </c>
+      <c r="L65" t="s">
+        <v>40</v>
+      </c>
+      <c r="M65" t="s">
+        <v>41</v>
+      </c>
+      <c r="N65" t="s">
+        <v>42</v>
+      </c>
+      <c r="P65" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>275</v>
+      </c>
+      <c r="R65" t="s">
+        <v>42</v>
+      </c>
+      <c r="S65">
+        <v>14</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65" t="s">
+        <v>41</v>
+      </c>
+      <c r="V65" t="s">
+        <v>42</v>
+      </c>
+      <c r="W65" t="s">
+        <v>53</v>
+      </c>
+      <c r="X65" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE65">
+        <v>2</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
+        <v>276</v>
+      </c>
+      <c r="G66" t="s">
+        <v>277</v>
+      </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" t="s">
+        <v>232</v>
+      </c>
+      <c r="M66" t="s">
+        <v>233</v>
+      </c>
+      <c r="N66" t="s">
+        <v>232</v>
+      </c>
+      <c r="P66" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>278</v>
+      </c>
+      <c r="R66" t="s">
+        <v>42</v>
+      </c>
+      <c r="S66">
+        <v>29</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66" t="s">
+        <v>233</v>
+      </c>
+      <c r="V66" t="s">
+        <v>42</v>
+      </c>
+      <c r="W66" t="s">
+        <v>106</v>
+      </c>
+      <c r="X66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE66">
+        <v>2</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" t="s">
+        <v>280</v>
+      </c>
+      <c r="H67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" t="s">
+        <v>39</v>
+      </c>
+      <c r="L67" t="s">
+        <v>232</v>
+      </c>
+      <c r="M67" t="s">
+        <v>233</v>
+      </c>
+      <c r="N67" t="s">
+        <v>232</v>
+      </c>
+      <c r="P67" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>281</v>
+      </c>
+      <c r="R67" t="s">
+        <v>42</v>
+      </c>
+      <c r="S67">
+        <v>29</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67" t="s">
+        <v>233</v>
+      </c>
+      <c r="V67" t="s">
+        <v>42</v>
+      </c>
+      <c r="W67" t="s">
+        <v>53</v>
+      </c>
+      <c r="X67" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE67">
+        <v>2</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
+        <v>282</v>
+      </c>
+      <c r="G68" t="s">
+        <v>283</v>
+      </c>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" t="s">
+        <v>117</v>
+      </c>
+      <c r="M68" t="s">
+        <v>120</v>
+      </c>
+      <c r="N68" t="s">
+        <v>42</v>
+      </c>
+      <c r="P68" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>284</v>
+      </c>
+      <c r="R68" t="s">
+        <v>42</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
+        <v>128</v>
+      </c>
+      <c r="V68" t="s">
+        <v>42</v>
+      </c>
+      <c r="W68" t="s">
+        <v>157</v>
+      </c>
+      <c r="X68" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE68">
+        <v>2</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
+        <v>285</v>
+      </c>
+      <c r="G69" t="s">
+        <v>286</v>
+      </c>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" t="s">
+        <v>39</v>
+      </c>
+      <c r="L69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M69" t="s">
+        <v>75</v>
+      </c>
+      <c r="N69" t="s">
+        <v>42</v>
+      </c>
+      <c r="P69" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>287</v>
+      </c>
+      <c r="R69" t="s">
+        <v>42</v>
+      </c>
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69" t="s">
+        <v>75</v>
+      </c>
+      <c r="V69" t="s">
+        <v>42</v>
+      </c>
+      <c r="W69" t="s">
+        <v>106</v>
+      </c>
+      <c r="X69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE69">
+        <v>2</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" t="s">
+        <v>288</v>
+      </c>
+      <c r="G70" t="s">
+        <v>289</v>
+      </c>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" t="s">
+        <v>39</v>
+      </c>
+      <c r="L70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M70" t="s">
+        <v>75</v>
+      </c>
+      <c r="N70" t="s">
+        <v>42</v>
+      </c>
+      <c r="P70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>290</v>
+      </c>
+      <c r="R70" t="s">
+        <v>42</v>
+      </c>
+      <c r="S70">
+        <v>5</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>86</v>
+      </c>
+      <c r="V70" t="s">
+        <v>42</v>
+      </c>
+      <c r="W70" t="s">
+        <v>43</v>
+      </c>
+      <c r="X70" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE70">
+        <v>2</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="s">
+        <v>291</v>
+      </c>
+      <c r="G71" t="s">
+        <v>292</v>
+      </c>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71" t="s">
+        <v>74</v>
+      </c>
+      <c r="M71" t="s">
+        <v>75</v>
+      </c>
+      <c r="N71" t="s">
+        <v>42</v>
+      </c>
+      <c r="P71" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>293</v>
+      </c>
+      <c r="R71" t="s">
+        <v>42</v>
+      </c>
+      <c r="S71">
+        <v>5</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71" t="s">
+        <v>75</v>
+      </c>
+      <c r="V71" t="s">
+        <v>42</v>
+      </c>
+      <c r="W71" t="s">
+        <v>53</v>
+      </c>
+      <c r="X71" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE71">
+        <v>2</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" t="s">
+        <v>295</v>
+      </c>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" t="s">
+        <v>39</v>
+      </c>
+      <c r="L72" t="s">
+        <v>40</v>
+      </c>
+      <c r="M72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N72" t="s">
+        <v>42</v>
+      </c>
+      <c r="P72" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>296</v>
+      </c>
+      <c r="R72" t="s">
+        <v>42</v>
+      </c>
+      <c r="S72">
+        <v>14</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72" t="s">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s">
+        <v>42</v>
+      </c>
+      <c r="W72" t="s">
+        <v>43</v>
+      </c>
+      <c r="X72" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE72">
+        <v>2</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
+        <v>297</v>
+      </c>
+      <c r="G73" t="s">
+        <v>298</v>
+      </c>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s">
+        <v>52</v>
+      </c>
+      <c r="K73" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73" t="s">
+        <v>40</v>
+      </c>
+      <c r="M73" t="s">
+        <v>41</v>
+      </c>
+      <c r="N73" t="s">
+        <v>42</v>
+      </c>
+      <c r="P73" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>299</v>
+      </c>
+      <c r="R73" t="s">
+        <v>42</v>
+      </c>
+      <c r="S73">
+        <v>14</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73" t="s">
+        <v>41</v>
+      </c>
+      <c r="V73" t="s">
+        <v>42</v>
+      </c>
+      <c r="W73" t="s">
+        <v>53</v>
+      </c>
+      <c r="X73" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE73">
+        <v>2</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
+        <v>300</v>
+      </c>
+      <c r="G74" t="s">
+        <v>301</v>
+      </c>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s">
+        <v>52</v>
+      </c>
+      <c r="K74" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" t="s">
+        <v>40</v>
+      </c>
+      <c r="M74" t="s">
+        <v>41</v>
+      </c>
+      <c r="N74" t="s">
+        <v>42</v>
+      </c>
+      <c r="P74" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>302</v>
+      </c>
+      <c r="R74" t="s">
+        <v>42</v>
+      </c>
+      <c r="S74">
+        <v>14</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74" t="s">
+        <v>41</v>
+      </c>
+      <c r="V74" t="s">
+        <v>42</v>
+      </c>
+      <c r="W74" t="s">
+        <v>53</v>
+      </c>
+      <c r="X74" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE74">
+        <v>2</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" t="s">
+        <v>304</v>
+      </c>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s">
+        <v>38</v>
+      </c>
+      <c r="K75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L75" t="s">
+        <v>40</v>
+      </c>
+      <c r="M75" t="s">
+        <v>41</v>
+      </c>
+      <c r="N75" t="s">
+        <v>42</v>
+      </c>
+      <c r="P75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>305</v>
+      </c>
+      <c r="R75" t="s">
+        <v>42</v>
+      </c>
+      <c r="S75">
+        <v>14</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75" t="s">
+        <v>41</v>
+      </c>
+      <c r="V75" t="s">
+        <v>42</v>
+      </c>
+      <c r="W75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X75" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE75">
+        <v>2</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" t="s">
+        <v>307</v>
+      </c>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s">
+        <v>38</v>
+      </c>
+      <c r="K76" t="s">
+        <v>39</v>
+      </c>
+      <c r="L76" t="s">
+        <v>40</v>
+      </c>
+      <c r="M76" t="s">
+        <v>41</v>
+      </c>
+      <c r="N76" t="s">
+        <v>42</v>
+      </c>
+      <c r="P76" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>308</v>
+      </c>
+      <c r="R76" t="s">
+        <v>42</v>
+      </c>
+      <c r="S76">
+        <v>14</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76" t="s">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s">
+        <v>42</v>
+      </c>
+      <c r="W76" t="s">
+        <v>43</v>
+      </c>
+      <c r="X76" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE76">
+        <v>2</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" t="s">
+        <v>309</v>
+      </c>
+      <c r="G77" t="s">
+        <v>310</v>
+      </c>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77" t="s">
+        <v>39</v>
+      </c>
+      <c r="L77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M77" t="s">
+        <v>41</v>
+      </c>
+      <c r="N77" t="s">
+        <v>42</v>
+      </c>
+      <c r="P77" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>311</v>
+      </c>
+      <c r="R77" t="s">
+        <v>42</v>
+      </c>
+      <c r="S77">
+        <v>14</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77" t="s">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s">
+        <v>42</v>
+      </c>
+      <c r="W77" t="s">
+        <v>157</v>
+      </c>
+      <c r="X77" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE77">
+        <v>2</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
+        <v>312</v>
+      </c>
+      <c r="G78" t="s">
+        <v>313</v>
+      </c>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s">
+        <v>95</v>
+      </c>
+      <c r="K78" t="s">
+        <v>39</v>
+      </c>
+      <c r="L78" t="s">
+        <v>40</v>
+      </c>
+      <c r="M78" t="s">
+        <v>41</v>
+      </c>
+      <c r="N78" t="s">
+        <v>42</v>
+      </c>
+      <c r="P78" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>314</v>
+      </c>
+      <c r="R78" t="s">
+        <v>42</v>
+      </c>
+      <c r="S78">
+        <v>14</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78" t="s">
+        <v>41</v>
+      </c>
+      <c r="V78" t="s">
+        <v>42</v>
+      </c>
+      <c r="W78" t="s">
+        <v>96</v>
+      </c>
+      <c r="X78" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE78">
+        <v>2</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" t="s">
+        <v>315</v>
+      </c>
+      <c r="G79" t="s">
+        <v>316</v>
+      </c>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" t="s">
+        <v>39</v>
+      </c>
+      <c r="L79" t="s">
+        <v>40</v>
+      </c>
+      <c r="M79" t="s">
+        <v>41</v>
+      </c>
+      <c r="N79" t="s">
+        <v>42</v>
+      </c>
+      <c r="P79" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>317</v>
+      </c>
+      <c r="R79" t="s">
+        <v>42</v>
+      </c>
+      <c r="S79">
+        <v>14</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79" t="s">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s">
+        <v>42</v>
+      </c>
+      <c r="W79" t="s">
+        <v>43</v>
+      </c>
+      <c r="X79" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE79">
+        <v>2</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" t="s">
+        <v>318</v>
+      </c>
+      <c r="G80" t="s">
+        <v>319</v>
+      </c>
+      <c r="H80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" t="s">
+        <v>39</v>
+      </c>
+      <c r="L80" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80" t="s">
+        <v>41</v>
+      </c>
+      <c r="N80" t="s">
+        <v>42</v>
+      </c>
+      <c r="P80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>320</v>
+      </c>
+      <c r="R80" t="s">
+        <v>42</v>
+      </c>
+      <c r="S80">
+        <v>14</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80" t="s">
+        <v>41</v>
+      </c>
+      <c r="V80" t="s">
+        <v>42</v>
+      </c>
+      <c r="W80" t="s">
+        <v>106</v>
+      </c>
+      <c r="X80" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE80">
+        <v>2</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" t="s">
+        <v>321</v>
+      </c>
+      <c r="G81" t="s">
+        <v>322</v>
+      </c>
+      <c r="H81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s">
+        <v>38</v>
+      </c>
+      <c r="K81" t="s">
+        <v>39</v>
+      </c>
+      <c r="L81" t="s">
+        <v>323</v>
+      </c>
+      <c r="M81" t="s">
+        <v>324</v>
+      </c>
+      <c r="N81" t="s">
+        <v>42</v>
+      </c>
+      <c r="P81" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>325</v>
+      </c>
+      <c r="R81" t="s">
+        <v>42</v>
+      </c>
+      <c r="S81">
+        <v>20</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81" t="s">
+        <v>324</v>
+      </c>
+      <c r="V81" t="s">
+        <v>42</v>
+      </c>
+      <c r="W81" t="s">
+        <v>106</v>
+      </c>
+      <c r="X81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE81">
+        <v>2</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s">
+        <v>326</v>
+      </c>
+      <c r="G82" t="s">
+        <v>327</v>
+      </c>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" t="s">
+        <v>39</v>
+      </c>
+      <c r="L82" t="s">
+        <v>323</v>
+      </c>
+      <c r="M82" t="s">
+        <v>324</v>
+      </c>
+      <c r="N82" t="s">
+        <v>42</v>
+      </c>
+      <c r="P82" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>328</v>
+      </c>
+      <c r="R82" t="s">
+        <v>42</v>
+      </c>
+      <c r="S82">
+        <v>20</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82" t="s">
+        <v>324</v>
+      </c>
+      <c r="V82" t="s">
+        <v>42</v>
+      </c>
+      <c r="W82" t="s">
+        <v>106</v>
+      </c>
+      <c r="X82" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE82">
+        <v>2</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" t="s">
+        <v>329</v>
+      </c>
+      <c r="G83" t="s">
+        <v>330</v>
+      </c>
+      <c r="H83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s">
+        <v>52</v>
+      </c>
+      <c r="K83" t="s">
+        <v>39</v>
+      </c>
+      <c r="L83" t="s">
+        <v>331</v>
+      </c>
+      <c r="M83" t="s">
+        <v>332</v>
+      </c>
+      <c r="N83" t="s">
+        <v>331</v>
+      </c>
+      <c r="P83" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>333</v>
+      </c>
+      <c r="R83" t="s">
+        <v>42</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83" t="s">
+        <v>332</v>
+      </c>
+      <c r="V83" t="s">
+        <v>42</v>
+      </c>
+      <c r="W83" t="s">
+        <v>53</v>
+      </c>
+      <c r="X83" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE83">
+        <v>2</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" t="s">
+        <v>334</v>
+      </c>
+      <c r="G84" t="s">
+        <v>335</v>
+      </c>
+      <c r="H84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" t="s">
+        <v>39</v>
+      </c>
+      <c r="L84" t="s">
+        <v>331</v>
+      </c>
+      <c r="M84" t="s">
+        <v>332</v>
+      </c>
+      <c r="N84" t="s">
+        <v>331</v>
+      </c>
+      <c r="P84" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>336</v>
+      </c>
+      <c r="R84" t="s">
+        <v>42</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84" t="s">
+        <v>332</v>
+      </c>
+      <c r="V84" t="s">
+        <v>42</v>
+      </c>
+      <c r="W84" t="s">
+        <v>106</v>
+      </c>
+      <c r="X84" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE84">
+        <v>2</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
+        <v>337</v>
+      </c>
+      <c r="G85" t="s">
+        <v>338</v>
+      </c>
+      <c r="H85" t="s">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s">
+        <v>38</v>
+      </c>
+      <c r="K85" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85" t="s">
+        <v>331</v>
+      </c>
+      <c r="M85" t="s">
+        <v>332</v>
+      </c>
+      <c r="N85" t="s">
+        <v>331</v>
+      </c>
+      <c r="P85" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>339</v>
+      </c>
+      <c r="R85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85" t="s">
+        <v>340</v>
+      </c>
+      <c r="V85" t="s">
+        <v>42</v>
+      </c>
+      <c r="W85" t="s">
+        <v>43</v>
+      </c>
+      <c r="X85" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE85">
+        <v>2</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>341</v>
+      </c>
+      <c r="G86" t="s">
+        <v>342</v>
+      </c>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s">
+        <v>52</v>
+      </c>
+      <c r="K86" t="s">
+        <v>39</v>
+      </c>
+      <c r="L86" t="s">
+        <v>331</v>
+      </c>
+      <c r="M86" t="s">
+        <v>332</v>
+      </c>
+      <c r="N86" t="s">
+        <v>331</v>
+      </c>
+      <c r="P86" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>343</v>
+      </c>
+      <c r="R86" t="s">
+        <v>42</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86" t="s">
+        <v>340</v>
+      </c>
+      <c r="V86" t="s">
+        <v>42</v>
+      </c>
+      <c r="W86" t="s">
+        <v>157</v>
+      </c>
+      <c r="X86" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE86">
+        <v>2</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" t="s">
+        <v>344</v>
+      </c>
+      <c r="G87" t="s">
+        <v>345</v>
+      </c>
+      <c r="H87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" t="s">
+        <v>38</v>
+      </c>
+      <c r="K87" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87" t="s">
+        <v>331</v>
+      </c>
+      <c r="M87" t="s">
+        <v>332</v>
+      </c>
+      <c r="N87" t="s">
+        <v>331</v>
+      </c>
+      <c r="P87" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>346</v>
+      </c>
+      <c r="R87" t="s">
+        <v>42</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87" t="s">
+        <v>332</v>
+      </c>
+      <c r="V87" t="s">
+        <v>42</v>
+      </c>
+      <c r="W87" t="s">
+        <v>106</v>
+      </c>
+      <c r="X87" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE87">
+        <v>2</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" t="s">
+        <v>347</v>
+      </c>
+      <c r="G88" t="s">
+        <v>348</v>
+      </c>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s">
+        <v>52</v>
+      </c>
+      <c r="K88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88" t="s">
+        <v>331</v>
+      </c>
+      <c r="M88" t="s">
+        <v>332</v>
+      </c>
+      <c r="N88" t="s">
+        <v>331</v>
+      </c>
+      <c r="P88" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>349</v>
+      </c>
+      <c r="R88" t="s">
+        <v>42</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88" t="s">
+        <v>332</v>
+      </c>
+      <c r="V88" t="s">
+        <v>42</v>
+      </c>
+      <c r="W88" t="s">
+        <v>53</v>
+      </c>
+      <c r="X88" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE88">
+        <v>2</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G89" t="s">
+        <v>351</v>
+      </c>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K89" t="s">
+        <v>39</v>
+      </c>
+      <c r="L89" t="s">
+        <v>331</v>
+      </c>
+      <c r="M89" t="s">
+        <v>332</v>
+      </c>
+      <c r="N89" t="s">
+        <v>331</v>
+      </c>
+      <c r="P89" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>352</v>
+      </c>
+      <c r="R89" t="s">
+        <v>42</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89" t="s">
+        <v>332</v>
+      </c>
+      <c r="V89" t="s">
+        <v>42</v>
+      </c>
+      <c r="W89" t="s">
+        <v>53</v>
+      </c>
+      <c r="X89" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE89">
+        <v>2</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" t="s">
+        <v>353</v>
+      </c>
+      <c r="G90" t="s">
+        <v>354</v>
+      </c>
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" t="s">
+        <v>52</v>
+      </c>
+      <c r="K90" t="s">
+        <v>39</v>
+      </c>
+      <c r="L90" t="s">
+        <v>331</v>
+      </c>
+      <c r="M90" t="s">
+        <v>332</v>
+      </c>
+      <c r="N90" t="s">
+        <v>331</v>
+      </c>
+      <c r="P90" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>355</v>
+      </c>
+      <c r="R90" t="s">
+        <v>42</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90" t="s">
+        <v>332</v>
+      </c>
+      <c r="V90" t="s">
+        <v>42</v>
+      </c>
+      <c r="W90" t="s">
+        <v>53</v>
+      </c>
+      <c r="X90" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE90">
+        <v>2</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" t="s">
+        <v>356</v>
+      </c>
+      <c r="G91" t="s">
+        <v>357</v>
+      </c>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" t="s">
+        <v>39</v>
+      </c>
+      <c r="L91" t="s">
+        <v>331</v>
+      </c>
+      <c r="M91" t="s">
+        <v>332</v>
+      </c>
+      <c r="N91" t="s">
+        <v>331</v>
+      </c>
+      <c r="P91" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>358</v>
+      </c>
+      <c r="R91" t="s">
+        <v>42</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91" t="s">
+        <v>340</v>
+      </c>
+      <c r="V91" t="s">
+        <v>42</v>
+      </c>
+      <c r="W91" t="s">
+        <v>43</v>
+      </c>
+      <c r="X91" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE91">
+        <v>2</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" t="s">
+        <v>359</v>
+      </c>
+      <c r="G92" t="s">
+        <v>360</v>
+      </c>
+      <c r="H92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92" t="s">
+        <v>39</v>
+      </c>
+      <c r="L92" t="s">
+        <v>331</v>
+      </c>
+      <c r="M92" t="s">
+        <v>332</v>
+      </c>
+      <c r="N92" t="s">
+        <v>331</v>
+      </c>
+      <c r="P92" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>361</v>
+      </c>
+      <c r="R92" t="s">
+        <v>42</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="U92" t="s">
+        <v>332</v>
+      </c>
+      <c r="V92" t="s">
+        <v>42</v>
+      </c>
+      <c r="W92" t="s">
+        <v>53</v>
+      </c>
+      <c r="X92" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE92">
+        <v>2</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" t="s">
+        <v>362</v>
+      </c>
+      <c r="G93" t="s">
+        <v>363</v>
+      </c>
+      <c r="H93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" t="s">
+        <v>38</v>
+      </c>
+      <c r="K93" t="s">
+        <v>39</v>
+      </c>
+      <c r="L93" t="s">
+        <v>331</v>
+      </c>
+      <c r="M93" t="s">
+        <v>332</v>
+      </c>
+      <c r="N93" t="s">
+        <v>331</v>
+      </c>
+      <c r="P93" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>364</v>
+      </c>
+      <c r="R93" t="s">
+        <v>42</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93" t="s">
+        <v>340</v>
+      </c>
+      <c r="V93" t="s">
+        <v>42</v>
+      </c>
+      <c r="W93" t="s">
+        <v>43</v>
+      </c>
+      <c r="X93" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE93">
+        <v>2</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
+        <v>365</v>
+      </c>
+      <c r="G94" t="s">
+        <v>366</v>
+      </c>
+      <c r="H94" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K94" t="s">
+        <v>39</v>
+      </c>
+      <c r="L94" t="s">
+        <v>331</v>
+      </c>
+      <c r="M94" t="s">
+        <v>332</v>
+      </c>
+      <c r="N94" t="s">
+        <v>331</v>
+      </c>
+      <c r="P94" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>367</v>
+      </c>
+      <c r="R94" t="s">
+        <v>42</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94" t="s">
+        <v>332</v>
+      </c>
+      <c r="V94" t="s">
+        <v>42</v>
+      </c>
+      <c r="W94" t="s">
+        <v>106</v>
+      </c>
+      <c r="X94" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE94">
+        <v>2</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
+        <v>368</v>
+      </c>
+      <c r="G95" t="s">
+        <v>369</v>
+      </c>
+      <c r="H95" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" t="s">
+        <v>52</v>
+      </c>
+      <c r="K95" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" t="s">
+        <v>40</v>
+      </c>
+      <c r="M95" t="s">
+        <v>41</v>
+      </c>
+      <c r="N95" t="s">
+        <v>42</v>
+      </c>
+      <c r="P95" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>370</v>
+      </c>
+      <c r="R95" t="s">
+        <v>42</v>
+      </c>
+      <c r="S95">
+        <v>14</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95" t="s">
+        <v>41</v>
+      </c>
+      <c r="V95" t="s">
+        <v>42</v>
+      </c>
+      <c r="W95" t="s">
+        <v>53</v>
+      </c>
+      <c r="X95" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE95">
+        <v>2</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" t="s">
+        <v>172</v>
+      </c>
+      <c r="G96" t="s">
+        <v>173</v>
+      </c>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" t="s">
+        <v>52</v>
+      </c>
+      <c r="K96" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" t="s">
+        <v>40</v>
+      </c>
+      <c r="M96" t="s">
+        <v>41</v>
+      </c>
+      <c r="N96" t="s">
+        <v>42</v>
+      </c>
+      <c r="P96" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>174</v>
+      </c>
+      <c r="R96" t="s">
+        <v>42</v>
+      </c>
+      <c r="S96">
+        <v>14</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96" t="s">
+        <v>45</v>
+      </c>
+      <c r="V96" t="s">
+        <v>42</v>
+      </c>
+      <c r="W96" t="s">
+        <v>157</v>
+      </c>
+      <c r="X96" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE96">
+        <v>2</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>371</v>
+      </c>
+      <c r="G97" t="s">
+        <v>372</v>
+      </c>
+      <c r="H97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" t="s">
+        <v>95</v>
+      </c>
+      <c r="K97" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97" t="s">
+        <v>59</v>
+      </c>
+      <c r="M97" t="s">
+        <v>60</v>
+      </c>
+      <c r="N97" t="s">
+        <v>42</v>
+      </c>
+      <c r="P97" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>373</v>
+      </c>
+      <c r="R97" t="s">
+        <v>42</v>
+      </c>
+      <c r="S97">
+        <v>6</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97" t="s">
+        <v>60</v>
+      </c>
+      <c r="V97" t="s">
+        <v>42</v>
+      </c>
+      <c r="W97" t="s">
+        <v>96</v>
+      </c>
+      <c r="X97" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE97">
+        <v>2</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
+        <v>374</v>
+      </c>
+      <c r="G98" t="s">
+        <v>375</v>
+      </c>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" t="s">
+        <v>52</v>
+      </c>
+      <c r="K98" t="s">
+        <v>39</v>
+      </c>
+      <c r="L98" t="s">
+        <v>203</v>
+      </c>
+      <c r="M98" t="s">
+        <v>204</v>
+      </c>
+      <c r="N98" t="s">
+        <v>42</v>
+      </c>
+      <c r="P98" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>376</v>
+      </c>
+      <c r="R98" t="s">
+        <v>42</v>
+      </c>
+      <c r="S98">
+        <v>9</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98" t="s">
+        <v>204</v>
+      </c>
+      <c r="V98" t="s">
+        <v>42</v>
+      </c>
+      <c r="W98" t="s">
+        <v>53</v>
+      </c>
+      <c r="X98" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE98">
+        <v>2</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" t="s">
+        <v>377</v>
+      </c>
+      <c r="G99" t="s">
+        <v>378</v>
+      </c>
+      <c r="H99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" t="s">
+        <v>95</v>
+      </c>
+      <c r="K99" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" t="s">
+        <v>203</v>
+      </c>
+      <c r="M99" t="s">
+        <v>204</v>
+      </c>
+      <c r="N99" t="s">
+        <v>42</v>
+      </c>
+      <c r="P99" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>379</v>
+      </c>
+      <c r="R99" t="s">
+        <v>42</v>
+      </c>
+      <c r="S99">
+        <v>9</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99" t="s">
+        <v>204</v>
+      </c>
+      <c r="V99" t="s">
+        <v>42</v>
+      </c>
+      <c r="W99" t="s">
+        <v>96</v>
+      </c>
+      <c r="X99" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE99">
+        <v>2</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" t="s">
+        <v>380</v>
+      </c>
+      <c r="G100" t="s">
+        <v>381</v>
+      </c>
+      <c r="H100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" t="s">
+        <v>52</v>
+      </c>
+      <c r="K100" t="s">
+        <v>39</v>
+      </c>
+      <c r="L100" t="s">
+        <v>203</v>
+      </c>
+      <c r="M100" t="s">
+        <v>204</v>
+      </c>
+      <c r="N100" t="s">
+        <v>42</v>
+      </c>
+      <c r="P100" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>382</v>
+      </c>
+      <c r="R100" t="s">
+        <v>42</v>
+      </c>
+      <c r="S100">
+        <v>9</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100" t="s">
+        <v>204</v>
+      </c>
+      <c r="V100" t="s">
+        <v>42</v>
+      </c>
+      <c r="W100" t="s">
+        <v>53</v>
+      </c>
+      <c r="X100" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE100">
+        <v>2</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" t="s">
+        <v>383</v>
+      </c>
+      <c r="G101" t="s">
+        <v>384</v>
+      </c>
+      <c r="H101" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s">
+        <v>38</v>
+      </c>
+      <c r="K101" t="s">
+        <v>39</v>
+      </c>
+      <c r="L101" t="s">
+        <v>203</v>
+      </c>
+      <c r="M101" t="s">
+        <v>204</v>
+      </c>
+      <c r="N101" t="s">
+        <v>42</v>
+      </c>
+      <c r="P101" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>385</v>
+      </c>
+      <c r="R101" t="s">
+        <v>42</v>
+      </c>
+      <c r="S101">
+        <v>9</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101" t="s">
+        <v>204</v>
+      </c>
+      <c r="V101" t="s">
+        <v>42</v>
+      </c>
+      <c r="W101" t="s">
+        <v>106</v>
+      </c>
+      <c r="X101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE101">
+        <v>2</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
